--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\possible production webpage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\yagnarashagan\possible production webpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE10B1B-E210-4505-A108-A8329F590276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D5EF6E-9C29-4C2A-92E6-788459016A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{101E7573-0A25-4384-BBBA-B0F85F690EA6}"/>
   </bookViews>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCA12A5-DD76-4EDF-B507-7268BD7D31EF}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,6 +1321,9 @@
         <f t="shared" si="0"/>
         <v>1405416</v>
       </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
